--- a/data.xlsx
+++ b/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazu/workspace/report-matplotlib/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CCF690B-25FC-3640-9886-041533F3B11C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CA4B68-A884-E54E-B528-13A5DB5502BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2060" windowWidth="27900" windowHeight="16940" xr2:uid="{98F6A286-CD29-BD4B-9F75-8E095086BABD}"/>
+    <workbookView xWindow="5680" yWindow="2200" windowWidth="27900" windowHeight="16940" xr2:uid="{98F6A286-CD29-BD4B-9F75-8E095086BABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,11 +33,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>X</t>
+    <t>$E [mW]$</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>$I [μ A]$</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -45,8 +45,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.000000"/>
+    <numFmt numFmtId="179" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -87,14 +90,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,119 +420,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A71474-3882-F24C-9B4A-CCB9DCE1FABB}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>2.2824</v>
+      </c>
+      <c r="B2">
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>0.106</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
+      <c r="A3" s="4">
+        <v>4.1975999999999996</v>
+      </c>
+      <c r="B3">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
+      <c r="A4" s="4">
+        <v>6.8039999999999994</v>
+      </c>
+      <c r="B4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
+      <c r="A5" s="4">
+        <v>10.864799999999999</v>
+      </c>
+      <c r="B5">
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
+      <c r="A6" s="4">
+        <v>18.287999999999997</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.01</v>
+      <c r="A7" s="4">
+        <v>33.695999999999998</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.23</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>0.45</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.05</v>
+      <c r="A8" s="4">
+        <v>56.951999999999991</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>0.499</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.3</v>
+      <c r="A9" s="4">
+        <v>74.088000000000008</v>
+      </c>
+      <c r="B9">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.6</v>
+      <c r="A10" s="4">
+        <v>111.96</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B12" s="2">
-        <v>35.1</v>
+      <c r="A11" s="4">
+        <v>136.15199999999999</v>
+      </c>
+      <c r="B11">
+        <v>0.96499999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="B13" s="2">
-        <v>96.5</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B15">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
